--- a/automatic_office/doc_file/工作周报_fromEndStr.xlsx
+++ b/automatic_office/doc_file/工作周报_fromEndStr.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pactera\lc_python\automatic_office\doc_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7860"/>
   </bookViews>
@@ -860,6 +865,63 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,63 +947,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,7 +1360,7 @@
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1368,53 +1373,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="6"/>
@@ -1428,17 +1433,17 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
@@ -1669,30 +1674,30 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="7" t="s">
@@ -1716,10 +1721,10 @@
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9" t="s">
@@ -1743,8 +1748,8 @@
       <c r="H26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
@@ -1756,8 +1761,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9" t="s">
@@ -1769,8 +1774,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
@@ -1782,8 +1787,8 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="9" t="s">
@@ -1795,8 +1800,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13" t="s">
@@ -1808,8 +1813,8 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="9" t="s">
@@ -1821,8 +1826,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
@@ -1834,8 +1839,8 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="9" t="s">
@@ -1847,8 +1852,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
@@ -1860,8 +1865,8 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
@@ -1873,8 +1878,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
@@ -1886,8 +1891,8 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
@@ -1899,8 +1904,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="6"/>
@@ -1914,28 +1919,28 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="6"/>
@@ -1949,17 +1954,17 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="20" t="s">
@@ -1978,10 +1983,10 @@
         <v>41</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="74"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="46" t="s">
         <v>43</v>
       </c>
@@ -2009,17 +2014,17 @@
       <c r="J46" s="48"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="20" t="s">
@@ -2073,15 +2078,15 @@
       <c r="J50" s="50"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="77"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="39" t="s">
@@ -2125,6 +2130,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B47:J47"/>
@@ -2134,26 +2159,6 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G11">

--- a/automatic_office/doc_file/工作周报_fromEndStr.xlsx
+++ b/automatic_office/doc_file/工作周报_fromEndStr.xlsx
@@ -204,17 +204,17 @@
     <t>董坚</t>
   </si>
   <si>
-    <t>修改 mantis 6个</t>
+    <t>fromEndStr</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>修改 mantis 1个</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fromEndStr</t>
-  </si>
-  <si>
-    <t>fromDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
   </si>
 </sst>
 </file>
@@ -865,46 +865,31 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,31 +907,46 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,53 +1373,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
+      <c r="C4" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="6"/>
@@ -1433,17 +1433,17 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
@@ -1479,13 +1479,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>64</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -1674,30 +1674,30 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="7" t="s">
@@ -1721,10 +1721,10 @@
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="74"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9" t="s">
@@ -1734,10 +1734,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>64</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
@@ -1748,8 +1748,8 @@
       <c r="H26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
@@ -1761,8 +1761,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9" t="s">
@@ -1774,8 +1774,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
@@ -1787,8 +1787,8 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="9" t="s">
@@ -1800,8 +1800,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13" t="s">
@@ -1813,8 +1813,8 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="9" t="s">
@@ -1826,8 +1826,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
@@ -1839,8 +1839,8 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="9" t="s">
@@ -1852,8 +1852,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
@@ -1865,8 +1865,8 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
@@ -1878,8 +1878,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
@@ -1891,8 +1891,8 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
@@ -1904,8 +1904,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="6"/>
@@ -1919,28 +1919,28 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="6"/>
@@ -1954,17 +1954,17 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="20" t="s">
@@ -1983,10 +1983,10 @@
         <v>41</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="59"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="46" t="s">
         <v>43</v>
       </c>
@@ -2014,17 +2014,17 @@
       <c r="J46" s="48"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="20" t="s">
@@ -2078,15 +2078,15 @@
       <c r="J50" s="50"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="77"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="39" t="s">
@@ -2130,26 +2130,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B47:J47"/>
@@ -2159,6 +2139,26 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G11">

--- a/automatic_office/doc_file/工作周报_fromEndStr.xlsx
+++ b/automatic_office/doc_file/工作周报_fromEndStr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>香港ODS项目周报</t>
   </si>
@@ -39,9 +39,6 @@
     <t>当前阶段</t>
   </si>
   <si>
-    <t>UAT</t>
-  </si>
-  <si>
     <t>本周任务</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>下周计划完成</t>
   </si>
   <si>
-    <t>mantis修改</t>
-  </si>
-  <si>
     <t>本周工作总结：</t>
   </si>
   <si>
@@ -214,6 +208,22 @@
   </si>
   <si>
     <t>修改 mantis 1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rehearsal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查报表权限控制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextFD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextND</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -236,12 +246,14 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,16 +261,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -266,17 +281,20 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF538DD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1359,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1407,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
@@ -1415,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -1434,7 +1452,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -1447,45 +1465,45 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -1494,14 +1512,14 @@
         <v>1</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -1514,14 +1532,14 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1534,7 +1552,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="10"/>
@@ -1547,7 +1565,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -1560,7 +1578,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="10"/>
@@ -1573,7 +1591,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -1586,7 +1604,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="10"/>
@@ -1599,7 +1617,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -1612,7 +1630,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="10"/>
@@ -1625,7 +1643,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -1638,7 +1656,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="10"/>
@@ -1651,7 +1669,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -1675,7 +1693,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="67"/>
@@ -1688,7 +1706,7 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -1701,43 +1719,43 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="I25" s="69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
@@ -1746,14 +1764,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="10"/>
@@ -1766,7 +1784,7 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="10"/>
@@ -1779,7 +1797,7 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -1792,7 +1810,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="10"/>
@@ -1805,7 +1823,7 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -1818,7 +1836,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="10"/>
@@ -1831,7 +1849,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -1844,7 +1862,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="10"/>
@@ -1857,7 +1875,7 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
@@ -1870,7 +1888,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="10"/>
@@ -1883,7 +1901,7 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
@@ -1896,7 +1914,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="10"/>
@@ -1920,7 +1938,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79"/>
@@ -1955,7 +1973,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
@@ -1968,27 +1986,27 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="F44" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I44" s="74"/>
       <c r="J44" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2015,7 +2033,7 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
@@ -2028,31 +2046,31 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="F48" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="G48" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="H48" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="32" t="s">
+      <c r="I48" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="46" t="s">
         <v>50</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -2090,31 +2108,31 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="E52" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="F52" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="G52" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="I52" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>59</v>
-      </c>
       <c r="J52" s="51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:10">

--- a/automatic_office/doc_file/工作周报_fromEndStr.xlsx
+++ b/automatic_office/doc_file/工作周报_fromEndStr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>香港ODS项目周报</t>
   </si>
@@ -205,18 +205,6 @@
   </si>
   <si>
     <t>endDate</t>
-  </si>
-  <si>
-    <t>修改 mantis 1个</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rehearsal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查报表权限控制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>nextFD</t>
@@ -224,6 +212,10 @@
   </si>
   <si>
     <t>nextND</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -883,6 +875,63 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,63 +957,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1370,7 @@
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1391,53 +1383,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="G4" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="6"/>
@@ -1451,17 +1443,17 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="7" t="s">
@@ -1496,9 +1488,7 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>62</v>
-      </c>
+      <c r="C8" s="55"/>
       <c r="D8" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,30 +1682,30 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="7" t="s">
@@ -1739,23 +1729,21 @@
       <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
@@ -1766,8 +1754,8 @@
       <c r="H26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
@@ -1779,8 +1767,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9" t="s">
@@ -1792,8 +1780,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
@@ -1805,8 +1793,8 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="9" t="s">
@@ -1818,8 +1806,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13" t="s">
@@ -1831,8 +1819,8 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="9" t="s">
@@ -1844,8 +1832,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
@@ -1857,8 +1845,8 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="9" t="s">
@@ -1870,8 +1858,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
@@ -1883,8 +1871,8 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="9" t="s">
@@ -1896,8 +1884,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
@@ -1909,8 +1897,8 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="9" t="s">
@@ -1922,8 +1910,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="6"/>
@@ -1937,28 +1925,28 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="6"/>
@@ -1972,17 +1960,17 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="73"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="20" t="s">
@@ -2001,10 +1989,10 @@
         <v>39</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I44" s="74"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="46" t="s">
         <v>41</v>
       </c>
@@ -2032,17 +2020,17 @@
       <c r="J46" s="48"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="73"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="20" t="s">
@@ -2096,15 +2084,15 @@
       <c r="J50" s="50"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="77"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="39" t="s">
@@ -2148,6 +2136,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="B47:J47"/>
@@ -2157,26 +2165,6 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G11">
